--- a/QMU/（用这个）仿真数据_新.xlsx
+++ b/QMU/（用这个）仿真数据_新.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\姚方浩\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MATLAB\MyMatlab\QMU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292E8E3E-9586-4B1B-BE0C-546E17D77E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436381FA-B540-4469-B562-2CB7FFDF45F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7830" yWindow="75" windowWidth="19440" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>直径/微米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>落高/cm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -74,12 +70,42 @@
     <t>是否反应 1或0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>mu1.3333，sigma0.080838</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mu1.4，sigma0.098658</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200-400混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">落高/cm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取对数后</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +115,30 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -121,11 +171,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -408,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -423,10 +475,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -434,25 +486,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -460,7 +512,7 @@
         <v>200</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -486,7 +538,7 @@
         <v>200</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>1.3009999999999999</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -512,7 +564,7 @@
         <v>200</v>
       </c>
       <c r="B5" s="1">
-        <v>30</v>
+        <v>1.4772000000000001</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -538,7 +590,7 @@
         <v>200</v>
       </c>
       <c r="B6" s="1">
-        <v>32</v>
+        <v>1.5051000000000001</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -564,7 +616,7 @@
         <v>200</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>1.5441</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -590,7 +642,7 @@
         <v>200</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>1.6021000000000001</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -616,7 +668,7 @@
         <v>200</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>1.6990000000000001</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -642,7 +694,7 @@
         <v>200</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>1.7782</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -668,7 +720,7 @@
         <v>300</v>
       </c>
       <c r="B11" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -694,7 +746,7 @@
         <v>300</v>
       </c>
       <c r="B12" s="1">
-        <v>11</v>
+        <v>1.0414000000000001</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -720,7 +772,7 @@
         <v>300</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>1.0791999999999999</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -746,7 +798,7 @@
         <v>300</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>1.1760999999999999</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -772,7 +824,7 @@
         <v>300</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>1.3009999999999999</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -798,7 +850,7 @@
         <v>300</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>1.5051000000000001</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -824,7 +876,7 @@
         <v>400</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -850,7 +902,7 @@
         <v>400</v>
       </c>
       <c r="B18" s="1">
-        <v>6</v>
+        <v>0.7782</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -876,7 +928,7 @@
         <v>400</v>
       </c>
       <c r="B19" s="1">
-        <v>7</v>
+        <v>0.84509999999999996</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -902,7 +954,7 @@
         <v>400</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>0.90310000000000001</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -928,7 +980,7 @@
         <v>400</v>
       </c>
       <c r="B21" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -954,7 +1006,7 @@
         <v>400</v>
       </c>
       <c r="B22" s="2">
-        <v>20</v>
+        <v>1.3009999999999999</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -980,7 +1032,7 @@
         <v>500</v>
       </c>
       <c r="B23" s="1">
-        <v>2</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1006,7 +1058,7 @@
         <v>500</v>
       </c>
       <c r="B24" s="1">
-        <v>3</v>
+        <v>0.47710000000000002</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1032,7 +1084,7 @@
         <v>500</v>
       </c>
       <c r="B25" s="2">
-        <v>5</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1058,7 +1110,7 @@
         <v>500</v>
       </c>
       <c r="B26" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1084,7 +1136,7 @@
         <v>500</v>
       </c>
       <c r="B27" s="2">
-        <v>20</v>
+        <v>1.3009999999999999</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1123,6 +1175,13 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="5"/>
       <c r="E29">
         <v>400</v>
       </c>
@@ -1140,6 +1199,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="5"/>
       <c r="E30">
         <v>400</v>
       </c>
@@ -1235,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1320,7 +1384,7 @@
         <v>30</v>
       </c>
       <c r="H40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -1405,7 +1469,7 @@
         <v>30</v>
       </c>
       <c r="H45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -1439,7 +1503,7 @@
         <v>90</v>
       </c>
       <c r="H47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -1644,7 +1708,7 @@
         <v>90</v>
       </c>
       <c r="H59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I59">
         <v>1</v>

--- a/QMU/（用这个）仿真数据_新.xlsx
+++ b/QMU/（用这个）仿真数据_新.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MATLAB\MyMatlab\QMU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436381FA-B540-4469-B562-2CB7FFDF45F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB703A06-4480-4EFB-A223-D163C776C406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7830" yWindow="75" windowWidth="19440" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8055" yWindow="30" windowWidth="17595" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>直径/微米</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,10 @@
       </rPr>
       <t>取对数后</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mu1.283333 sigma0.067698</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1221,6 +1225,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1"/>
       <c r="E31">
         <v>400</v>
       </c>
